--- a/PressureL.xlsx
+++ b/PressureL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E2C9B-39F4-4B52-BD99-7938C7BA6249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3E83D-2B5E-45EE-8AA5-89F7FEB263E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDD1F45A-C8D6-4A6C-8220-1C0B31B0B2F3}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>temperature_c</t>
   </si>
   <si>
-    <t>pressure _bar</t>
-  </si>
-  <si>
     <t>entropy_J_gK</t>
   </si>
   <si>
@@ -59,7 +56,10 @@
     <t>u_kJ_kg</t>
   </si>
   <si>
-    <t>enthalpy_ kJ_kg</t>
+    <t>pressure_bar</t>
+  </si>
+  <si>
+    <t>enthalpy_kJ_kg</t>
   </si>
 </sst>
 </file>
@@ -451,47 +451,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2DE3E-65FC-4555-A7CB-8237D2D35DD8}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.54296875" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -514,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -537,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1.2</v>
       </c>
@@ -560,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1.3</v>
       </c>
@@ -583,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1.4</v>
       </c>
@@ -606,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
@@ -629,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1.6</v>
       </c>
@@ -652,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1.7</v>
       </c>
@@ -675,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1.8</v>
       </c>
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1.9</v>
       </c>
@@ -721,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -744,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2.1</v>
       </c>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -790,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -813,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2.4</v>
       </c>
@@ -2705,6 +2706,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7e27dc34-9a55-4451-bf28-132404c5ea79" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2713,7 +2722,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100518354C0C399C14C932DCDBE756AE43F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2034455e70accfce581f8b151a8f78e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e27dc34-9a55-4451-bf28-132404c5ea79" xmlns:ns4="088fcf75-8bad-4d98-be94-eb653997ebb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="398ac89100fc04ad64b4e4f7a91feb8c" ns3:_="" ns4:_="">
     <xsd:import namespace="7e27dc34-9a55-4451-bf28-132404c5ea79"/>
@@ -2934,15 +2943,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7e27dc34-9a55-4451-bf28-132404c5ea79" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A02833F-1FC1-4CCB-B519-1448FA212C30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e27dc34-9a55-4451-bf28-132404c5ea79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="088fcf75-8bad-4d98-be94-eb653997ebb4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527C161C-0301-47AB-A627-2D3815A4320E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2950,7 +2968,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F48D065-EF85-437E-BC58-3FBDE90B1397}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2967,21 +2985,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A02833F-1FC1-4CCB-B519-1448FA212C30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e27dc34-9a55-4451-bf28-132404c5ea79"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="088fcf75-8bad-4d98-be94-eb653997ebb4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>